--- a/data/trans_bre/P0901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>40,96%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 20,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,86</t>
+          <t>-0,74; 7,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,57; 190,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 117,22</t>
+          <t>-7,26; 125,15</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>39,98%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,75</t>
+          <t>2,06; 11,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 68,93</t>
+          <t>9,9; 78,01</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>30,36%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,97</t>
+          <t>-0,55; 9,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 75,46</t>
+          <t>-3,18; 78,47</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,62</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>103,89%</t>
+          <t>106,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 20,34</t>
+          <t>10,98; 23,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 11,05</t>
+          <t>-10,03; 8,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,08; 159,11</t>
+          <t>56,18; 165,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 67,06</t>
+          <t>-42,16; 45,95</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>76,1%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,55</t>
+          <t>0,91; 9,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 180,94</t>
+          <t>7,53; 180,19</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>35,62%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 8,73</t>
+          <t>-0,33; 8,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 85,85</t>
+          <t>-2,38; 89,54</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 10,67</t>
+          <t>-7,41; 10,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 79,13</t>
+          <t>-44,01; 78,96</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>136,27%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,18</t>
+          <t>7,33; 18,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,33; 144,64</t>
+          <t>58,72; 453,24</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>46,94%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,02</t>
+          <t>2,97; 8,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,86; 60,81</t>
+          <t>22,81; 81,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P0901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 15,19</t>
+          <t>3,38; 15,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 20,77</t>
+          <t>7,07; 20,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 20,51</t>
+          <t>7,32; 20,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,89</t>
+          <t>-0,33; 8,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,58; 174,77</t>
+          <t>22,35; 185,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,57; 190,24</t>
+          <t>39,47; 185,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,63; 212,61</t>
+          <t>46,15; 228,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 125,15</t>
+          <t>-4,13; 128,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,62</t>
+          <t>3,65; 12,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 12,84</t>
+          <t>2,84; 12,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 12,78</t>
+          <t>3,88; 12,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,46</t>
+          <t>1,98; 11,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,18; 169,46</t>
+          <t>29,46; 169,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 146,29</t>
+          <t>17,96; 140,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,62; 188,9</t>
+          <t>35,14; 183,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,9; 78,01</t>
+          <t>9,67; 78,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,84</t>
+          <t>3,32; 12,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,26</t>
+          <t>1,95; 13,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,62</t>
+          <t>-1,24; 8,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,24</t>
+          <t>-0,66; 9,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,5; 318,08</t>
+          <t>38,53; 284,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 134,82</t>
+          <t>13,57; 142,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 129,76</t>
+          <t>-12,12; 131,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 78,47</t>
+          <t>-5,03; 73,21</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,17</t>
+          <t>6,36; 15,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 23,12</t>
+          <t>11,06; 23,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 22,12</t>
+          <t>9,46; 22,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 8,15</t>
+          <t>-9,37; 8,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,81; 482,97</t>
+          <t>77,08; 445,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,18; 165,92</t>
+          <t>58,02; 177,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,52; 157,46</t>
+          <t>47,19; 159,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 45,95</t>
+          <t>-40,4; 45,69</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 10,4</t>
+          <t>-1,19; 10,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 19,72</t>
+          <t>5,27; 19,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,53</t>
+          <t>-0,96; 10,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,55</t>
+          <t>0,99; 9,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 191,83</t>
+          <t>-13,05; 200,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,4; 209,62</t>
+          <t>30,14; 218,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 189,45</t>
+          <t>-11,36; 186,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 180,19</t>
+          <t>8,68; 198,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 13,15</t>
+          <t>1,21; 13,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 9,87</t>
+          <t>-4,01; 9,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 15,04</t>
+          <t>-0,54; 14,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,93</t>
+          <t>-0,37; 9,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,8; 181,71</t>
+          <t>8,32; 184,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 100,63</t>
+          <t>-24,44; 84,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 114,04</t>
+          <t>-4,28; 104,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 89,54</t>
+          <t>-3,09; 86,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,77</t>
+          <t>0,61; 8,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,62</t>
+          <t>2,82; 10,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,07</t>
+          <t>5,5; 14,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 10,7</t>
+          <t>-6,96; 9,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 97,12</t>
+          <t>5,89; 103,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,68; 139,15</t>
+          <t>23,79; 132,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,65; 155,75</t>
+          <t>40,9; 156,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 78,96</t>
+          <t>-41,04; 70,08</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,13</t>
+          <t>3,34; 10,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,03</t>
+          <t>3,72; 11,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,94</t>
+          <t>4,7; 11,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,33; 18,44</t>
+          <t>7,61; 18,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,64; 119,97</t>
+          <t>26,74; 113,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,04; 114,1</t>
+          <t>27,04; 115,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,5; 197,64</t>
+          <t>56,3; 197,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,72; 453,24</t>
+          <t>59,88; 415,03</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,74; 8,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,61</t>
+          <t>7,01; 10,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,77</t>
+          <t>7,16; 10,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,92</t>
+          <t>2,64; 9,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,89; 105,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>53,85; 94,54</t>
+          <t>54,3; 97,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>64,83; 110,52</t>
+          <t>63,67; 109,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>22,81; 81,97</t>
+          <t>22,22; 86,49</t>
         </is>
       </c>
     </row>
